--- a/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_Thin/ReadContent/Alignment_Statistics_Thin.xlsx
+++ b/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_Thin/ReadContent/Alignment_Statistics_Thin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_Thin/ReadContent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C8166-54B6-D442-A3E1-D9C6DAF24843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B995A-C5DD-A141-A079-FC2DA4B7FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0709630-11BE-3D42-A37F-709CE560802A}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="14180" windowHeight="15660" xr2:uid="{B0709630-11BE-3D42-A37F-709CE560802A}"/>
   </bookViews>
   <sheets>
     <sheet name="PerSampleStats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>CT7.7_38</t>
   </si>
@@ -111,6 +111,105 @@
   </si>
   <si>
     <t>Unmapped_Too_Short_%</t>
+  </si>
+  <si>
+    <t>Alignment for assembly assessment</t>
+  </si>
+  <si>
+    <t>CT7.7_37</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>CT7.7_39</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>CT7.7_9</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>CT8.1_10</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>CT8.1_12</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>CT8.1_48</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>CT8.1_86</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>Hg7.7_19</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>Hg7.7_21</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>Hg7.7_55</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>Hg8.1_31</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -139,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,14 +270,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0293C-6732-2D41-B3B9-12B1412EDB46}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,9 +630,10 @@
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -551,423 +660,426 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
         <v>19454576</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>10919658</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>7832935</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <f>C2+D2</f>
         <v>18752593</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <f>(E2*100)/B2</f>
         <v>96.39168183362105</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>0.74</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>20955285</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>11549840</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>8458511</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="0">C3+D3</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E29" si="0">C3+D3</f>
         <v>20008351</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F18" si="1">(E3*100)/B3</f>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F29" si="1">(E3*100)/B3</f>
         <v>95.481168593030347</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>0.69</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>25251769</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>13901400</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>10430264</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>24331664</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
         <v>96.356275079183561</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>0.6</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>3.04</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>18782523</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>10528797</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>7595006</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>18123803</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>96.492909924827458</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>0.67</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>2.84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>17344757</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>9784079</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>6974206</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>16758285</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <f>(E6*100)/B6</f>
         <v>96.618736140264176</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>0.73</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>2.65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>16512773</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>8772636</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>7205461</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>15978097</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>96.76204596284343</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>0.67</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>21349241</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>12295638</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>8293567</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f>C8+D8</f>
         <v>20589205</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>96.439985852424442</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>0.64</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>2.92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>18130011</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>9927112</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>7481384</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>17408496</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>96.020327842051501</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>0.65</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>3.33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>21518913</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>11843784</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>8604139</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>20447923</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>95.023029276618203</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>18796231</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>10492909</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>7639274</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>18132183</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>96.467121520266488</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>0.91</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>2.61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>19850185</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>10761682</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>8301559</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>19063241</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>96.035583547458117</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>0.75</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>3.22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>19571517</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>10990945</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>7703391</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>18694336</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>95.518073535127598</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>0.65</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>3.83</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>17809190</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>9450471</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>7279428</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>16729899</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>93.939696302863865</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>0.65</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1100,7 @@
         <f t="shared" si="1"/>
         <v>95.327761688335812</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="6">
         <v>0.95</v>
       </c>
@@ -999,67 +1111,67 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>29726641</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>17039491</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>10959614</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>27999105</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>94.188593322737006</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <v>0.59</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>5.22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>16411783</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>9753956</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>6114004</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>15867960</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>96.686386847790999</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="1">
+      <c r="H17" s="6">
         <v>0.62</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>2.69</v>
       </c>
     </row>
@@ -1101,6 +1213,396 @@
         <v>3.4456249999999993</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16592578</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9163007</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6781203</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>15944210</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>96.092421563424324</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>22397536</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12855999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>8583212</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>21439211</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>95.721292735058</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21843996</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11670299</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9254928</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>20925227</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>95.793951802591437</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21570067</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11575075</v>
+      </c>
+      <c r="D22">
+        <v>9057333</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>20632408</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>95.652962042259773</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20702257</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11240055</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8690408</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>19930463</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
+        <v>96.271933055415161</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15918629</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8873619</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6615260</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>15488879</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>97.300332836452185</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20349981</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11295958</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8333985</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>19629943</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>96.461726426181926</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18546542</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10410155</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7418042</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>17828197</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="1"/>
+        <v>96.12679819235305</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14539383</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7956325</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5843768</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>13800093</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="1"/>
+        <v>94.915258783677416</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16271977</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8768543</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6745774</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>15514317</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="1"/>
+        <v>95.3437741461901</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17723103</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10111557</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6712681</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>16824238</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="1"/>
+        <v>94.928286542147845</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B2:B17,B19:B29)</f>
+        <v>535053108</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C2:C17,C19:C29)</f>
+        <v>296950624</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D2:D17,D19:D29)</f>
+        <v>215755711</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E2:E17,E19:E29)</f>
+        <v>512706335</v>
+      </c>
+      <c r="F30" s="9">
+        <f>(E30*100)/B30</f>
+        <v>95.82344767914141</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <f>AVERAGE(H2:H17,H19:H29)</f>
+        <v>0.69312499999999988</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:J30" si="4">AVERAGE(I2:I17,I19:I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(J2:J17,J19:J29)</f>
+        <v>3.4456249999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
